--- a/results/mp/tinybert/corona/confidence/84/0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,9 +40,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
@@ -55,97 +52,127 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -503,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -572,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -590,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -614,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -622,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.84</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -640,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -664,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -672,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7207792207792207</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -690,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3776824034334764</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C6">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -740,169 +767,97 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.9130434782608695</v>
+      </c>
+      <c r="L6">
+        <v>42</v>
+      </c>
+      <c r="M6">
+        <v>42</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="L7">
+        <v>96</v>
+      </c>
+      <c r="M7">
+        <v>96</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L8">
+        <v>30</v>
+      </c>
+      <c r="M8">
+        <v>30</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6">
-        <v>0.925</v>
-      </c>
-      <c r="L6">
-        <v>37</v>
-      </c>
-      <c r="M6">
-        <v>37</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C7">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>65</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L7">
-        <v>45</v>
-      </c>
-      <c r="M7">
-        <v>45</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1875</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>65</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1185185185185185</v>
-      </c>
-      <c r="C9">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>119</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8620689655172413</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -914,21 +869,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -940,21 +895,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -966,47 +921,47 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L12">
+        <v>95</v>
+      </c>
+      <c r="M12">
+        <v>95</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>25</v>
-      </c>
-      <c r="K12">
-        <v>0.803921568627451</v>
-      </c>
-      <c r="L12">
-        <v>41</v>
-      </c>
-      <c r="M12">
-        <v>41</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1018,21 +973,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14">
+        <v>0.75</v>
+      </c>
+      <c r="L14">
         <v>27</v>
       </c>
-      <c r="K14">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L14">
-        <v>29</v>
-      </c>
       <c r="M14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1044,47 +999,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7241379310344828</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>42</v>
-      </c>
-      <c r="M15">
-        <v>42</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6986301369863014</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1096,21 +1051,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="L17">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M17">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1122,21 +1077,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1148,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1174,21 +1129,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1200,21 +1155,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.625</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L21">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="M21">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1226,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5539906103286385</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>118</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1252,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5348837209302325</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1278,21 +1233,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5333333333333333</v>
+        <v>0.5352480417754569</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>205</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1304,21 +1259,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="L25">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>166</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1330,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4285714285714285</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1356,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4130434782608696</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1382,47 +1337,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.01248884924174844</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L28">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="N28">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>1107</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.007828810020876827</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L29">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M29">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1434,33 +1389,345 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>1901</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3974358974358974</v>
+      </c>
+      <c r="L30">
+        <v>31</v>
+      </c>
+      <c r="M30">
+        <v>31</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>0.3305439330543933</v>
+      </c>
+      <c r="L31">
+        <v>79</v>
+      </c>
+      <c r="M31">
+        <v>79</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.0302013422818792</v>
+      </c>
+      <c r="L32">
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>27</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="K30">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="L30">
-        <v>14</v>
-      </c>
-      <c r="M30">
-        <v>15</v>
-      </c>
-      <c r="N30">
+      <c r="K33">
+        <v>0.02833333333333333</v>
+      </c>
+      <c r="L33">
+        <v>34</v>
+      </c>
+      <c r="M33">
+        <v>34</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K34">
+        <v>0.02735562310030395</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
         <v>0.93</v>
       </c>
-      <c r="O30">
+      <c r="O34">
         <v>0.06999999999999995</v>
       </c>
-      <c r="P30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q30">
-        <v>1974</v>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35">
+        <v>0.01721556886227545</v>
+      </c>
+      <c r="L35">
+        <v>46</v>
+      </c>
+      <c r="M35">
+        <v>47</v>
+      </c>
+      <c r="N35">
+        <v>0.98</v>
+      </c>
+      <c r="O35">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L36">
+        <v>25</v>
+      </c>
+      <c r="M36">
+        <v>27</v>
+      </c>
+      <c r="N36">
+        <v>0.93</v>
+      </c>
+      <c r="O36">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K37">
+        <v>0.01351904956984842</v>
+      </c>
+      <c r="L37">
+        <v>33</v>
+      </c>
+      <c r="M37">
+        <v>37</v>
+      </c>
+      <c r="N37">
+        <v>0.89</v>
+      </c>
+      <c r="O37">
+        <v>0.11</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38">
+        <v>0.01169317118802619</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>30</v>
+      </c>
+      <c r="N38">
+        <v>0.83</v>
+      </c>
+      <c r="O38">
+        <v>0.17</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K39">
+        <v>0.01101321585903084</v>
+      </c>
+      <c r="L39">
+        <v>55</v>
+      </c>
+      <c r="M39">
+        <v>57</v>
+      </c>
+      <c r="N39">
+        <v>0.96</v>
+      </c>
+      <c r="O39">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>0.008698453608247423</v>
+      </c>
+      <c r="L40">
+        <v>27</v>
+      </c>
+      <c r="M40">
+        <v>30</v>
+      </c>
+      <c r="N40">
+        <v>0.9</v>
+      </c>
+      <c r="O40">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K41">
+        <v>0.008523827973653622</v>
+      </c>
+      <c r="L41">
+        <v>44</v>
+      </c>
+      <c r="M41">
+        <v>47</v>
+      </c>
+      <c r="N41">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O41">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42">
+        <v>0.006238447319778189</v>
+      </c>
+      <c r="L42">
+        <v>27</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>4301</v>
       </c>
     </row>
   </sheetData>
